--- a/Assets/Excel/Episode.xlsx
+++ b/Assets/Excel/Episode.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\UnityProject\BlueValkyrie\Assets\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E69E9F7-80C4-47A1-B64B-72512457A4DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84D60F68-A00F-46D3-B325-D317FA47B7FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6525" yWindow="4335" windowWidth="20460" windowHeight="10770" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3315" yWindow="3705" windowWidth="19155" windowHeight="10770" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EpisodeInfo" sheetId="1" r:id="rId1"/>
+    <sheet name="EnemyInfo" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="55">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -119,11 +120,131 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>prefectRound</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>完美通关限制回合数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完美通关限制人员伤亡数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>perfectTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完美通关限制时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>perfectRound</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>perfectDieCount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>enemy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>敌人id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>roleId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>atk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>def</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ap</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>防御力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>血量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>行动点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>roleName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Drone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Soldier_AR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Soldier_MG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Soldier_RL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Soldier_SG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ammo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>弹药量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>atkType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>atkRange</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击范围</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{1,3,4,5}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -449,10 +570,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -463,10 +584,13 @@
     <col min="5" max="5" width="17.25" customWidth="1"/>
     <col min="6" max="6" width="17.75" customWidth="1"/>
     <col min="7" max="7" width="10.875" customWidth="1"/>
-    <col min="8" max="8" width="17.125" customWidth="1"/>
+    <col min="8" max="8" width="18.25" customWidth="1"/>
+    <col min="9" max="9" width="17.125" customWidth="1"/>
+    <col min="10" max="10" width="23" customWidth="1"/>
+    <col min="11" max="11" width="21.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -489,10 +613,19 @@
         <v>21</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+        <v>27</v>
+      </c>
+      <c r="I1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -517,13 +650,22 @@
       <c r="H2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J2" t="s">
+        <v>2</v>
+      </c>
+      <c r="K2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -546,10 +688,19 @@
         <v>22</v>
       </c>
       <c r="H4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J4" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1</v>
       </c>
@@ -573,6 +724,370 @@
       </c>
       <c r="H5">
         <v>5</v>
+      </c>
+      <c r="I5">
+        <v>180</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6">
+        <v>10</v>
+      </c>
+      <c r="H6">
+        <v>5</v>
+      </c>
+      <c r="I6">
+        <v>180</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7">
+        <v>10</v>
+      </c>
+      <c r="H7">
+        <v>5</v>
+      </c>
+      <c r="I7">
+        <v>180</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{024E14DC-546C-48C0-968E-F88C69120786}">
+  <dimension ref="A1:J9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="10.5" customWidth="1"/>
+    <col min="6" max="6" width="8.25" customWidth="1"/>
+    <col min="7" max="7" width="8.125" customWidth="1"/>
+    <col min="9" max="9" width="13.625" customWidth="1"/>
+    <col min="10" max="10" width="12.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H4" t="s">
+        <v>49</v>
+      </c>
+      <c r="I4" t="s">
+        <v>51</v>
+      </c>
+      <c r="J4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>2001</v>
+      </c>
+      <c r="C5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D5">
+        <v>5</v>
+      </c>
+      <c r="E5">
+        <v>5</v>
+      </c>
+      <c r="F5">
+        <v>100</v>
+      </c>
+      <c r="G5">
+        <v>50</v>
+      </c>
+      <c r="H5">
+        <v>5</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6">
+        <v>2002</v>
+      </c>
+      <c r="C6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6">
+        <v>30</v>
+      </c>
+      <c r="E6">
+        <v>5</v>
+      </c>
+      <c r="F6">
+        <v>150</v>
+      </c>
+      <c r="G6">
+        <v>100</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>4</v>
+      </c>
+      <c r="J6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>3</v>
+      </c>
+      <c r="B7">
+        <v>2003</v>
+      </c>
+      <c r="C7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D7">
+        <v>10</v>
+      </c>
+      <c r="E7">
+        <v>10</v>
+      </c>
+      <c r="F7">
+        <v>150</v>
+      </c>
+      <c r="G7">
+        <v>150</v>
+      </c>
+      <c r="H7">
+        <v>5</v>
+      </c>
+      <c r="I7">
+        <v>2</v>
+      </c>
+      <c r="J7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>4</v>
+      </c>
+      <c r="B8">
+        <v>2004</v>
+      </c>
+      <c r="C8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D8">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>10</v>
+      </c>
+      <c r="F8">
+        <v>300</v>
+      </c>
+      <c r="G8">
+        <v>150</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>5</v>
+      </c>
+      <c r="J8">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>5</v>
+      </c>
+      <c r="B9">
+        <v>2005</v>
+      </c>
+      <c r="C9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D9">
+        <v>10</v>
+      </c>
+      <c r="E9">
+        <v>5</v>
+      </c>
+      <c r="F9">
+        <v>150</v>
+      </c>
+      <c r="G9">
+        <v>100</v>
+      </c>
+      <c r="H9">
+        <v>3</v>
+      </c>
+      <c r="I9">
+        <v>3</v>
+      </c>
+      <c r="J9">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
